--- a/Input/Cigna_Global_Health/OldSheets/benefits.xlsx
+++ b/Input/Cigna_Global_Health/OldSheets/benefits.xlsx
@@ -242,7 +242,7 @@
     <t xml:space="preserve">cigna_global_health</t>
   </si>
   <si>
-    <t xml:space="preserve">GBP</t>
+    <t xml:space="preserve">High-Africa - High-Africa - Low</t>
   </si>
   <si>
     <t xml:space="preserve">2024-02-15</t>
@@ -505,7 +505,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -532,11 +532,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -581,7 +576,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -614,10 +609,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,11 +628,11 @@
   </sheetPr>
   <dimension ref="A1:BA50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AY1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BA12" activeCellId="0" sqref="BA12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AO16" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AT30" activeCellId="0" sqref="AT30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="11.52"/>
@@ -809,7 +800,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="57.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>51</v>
       </c>
@@ -1229,7 +1220,7 @@
       <c r="AU6" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="BA6" s="8" t="s">
+      <c r="BA6" s="4" t="s">
         <v>31</v>
       </c>
     </row>
